--- a/BackTest/2020-01-21 BackTest ETC.xlsx
+++ b/BackTest/2020-01-21 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>27750.10188927053</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>24357.01779658124</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9555</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -521,7 +527,11 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +564,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +601,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +638,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +675,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +712,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +749,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +786,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +823,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +860,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +897,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +934,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +971,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1008,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1045,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1082,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1119,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1156,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1193,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1230,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1267,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1304,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1341,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1378,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1415,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1452,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1489,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1526,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1563,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,14 +1596,16 @@
         <v>42356.38012882943</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1507,7 +1631,7 @@
         <v>42754.68782882942</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1738,7 +1862,7 @@
         <v>44945.27567714984</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1895,7 @@
         <v>44034.79207714984</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1961,7 @@
         <v>41627.91777714984</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +2027,7 @@
         <v>43929.21759820246</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +2093,7 @@
         <v>43493.80630974693</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2126,7 @@
         <v>43216.25400974692</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2159,7 @@
         <v>41650.14780974692</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2192,7 @@
         <v>41052.65674755214</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2225,7 @@
         <v>41052.65674755214</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2258,7 @@
         <v>39122.31564755214</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2291,7 @@
         <v>37662.60794755214</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2324,7 @@
         <v>36583.51584755214</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2357,7 @@
         <v>36950.9550654563</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2390,7 @@
         <v>36596.5000654563</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2423,7 @@
         <v>36952.87789821038</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2456,7 @@
         <v>36952.87789821038</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2489,7 @@
         <v>36952.87789821038</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -9064,7 +9188,7 @@
         <v>36419.54140567089</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9221,7 @@
         <v>38766.63560567089</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9254,7 @@
         <v>37813.00170567089</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9287,7 @@
         <v>35695.59210567089</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10549,7 +10673,7 @@
         <v>37012.18178997118</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10706,7 @@
         <v>36249.80828997118</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10681,7 +10805,7 @@
         <v>34933.31928997119</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11605,7 +11729,7 @@
         <v>38863.50740742799</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11762,7 @@
         <v>38785.16960742799</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11795,7 @@
         <v>38671.26150742799</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11828,7 @@
         <v>37976.83910742799</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12694,7 +12818,7 @@
         <v>39857.06077231692</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12851,7 @@
         <v>39597.41247231692</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12793,7 +12917,7 @@
         <v>39015.77167231692</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12950,7 @@
         <v>39221.89557231692</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12958,7 +13082,7 @@
         <v>39667.80737231693</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +13115,7 @@
         <v>38748.25177231693</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13148,7 @@
         <v>38475.03957231693</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13181,7 @@
         <v>38887.32367231692</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13214,7 @@
         <v>39228.13227231692</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13247,7 @@
         <v>40863.15997231692</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13280,7 @@
         <v>40724.22307231692</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13313,7 @@
         <v>40519.59293392635</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13346,7 @@
         <v>40829.51433392635</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13379,7 @@
         <v>40438.08083392635</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13321,7 +13445,7 @@
         <v>39595.71803392635</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13478,7 @@
         <v>39605.71803392635</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13511,7 @@
         <v>39164.51623392635</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13544,7 @@
         <v>38798.26483392635</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13577,7 @@
         <v>38686.38203392635</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13610,7 @@
         <v>38727.03233392635</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13643,7 @@
         <v>38712.65233392635</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13676,7 @@
         <v>38712.65233392635</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13709,7 @@
         <v>39179.83621164122</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13742,7 @@
         <v>39077.53621164122</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13775,7 @@
         <v>39649.63801164122</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13808,7 @@
         <v>41825.52401164122</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13841,7 @@
         <v>40391.38161164122</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13874,7 @@
         <v>38430.2593924771</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13907,7 @@
         <v>38581.4455924771</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13940,7 @@
         <v>38538.77399247709</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13915,7 +14039,7 @@
         <v>37574.68359247709</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +14072,7 @@
         <v>37206.48479247709</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +14105,7 @@
         <v>37665.51509247709</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14138,7 @@
         <v>37865.47769247709</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14171,7 @@
         <v>37767.66669247709</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14204,7 @@
         <v>38259.82909247709</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14237,7 @@
         <v>37463.33219247709</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14270,7 @@
         <v>37701.64989247709</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14303,7 @@
         <v>37601.66169247709</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14336,7 @@
         <v>38637.17711359668</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14369,7 @@
         <v>38746.87301359668</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14402,7 @@
         <v>39461.07160896092</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14435,7 @@
         <v>38450.36240896092</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14468,7 @@
         <v>38450.36240896092</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14501,7 @@
         <v>38641.90220896092</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14534,7 @@
         <v>38286.54609674835</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14567,7 @@
         <v>37292.36609674835</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14600,7 @@
         <v>37507.05569674835</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14633,7 @@
         <v>36827.84639674835</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14666,7 @@
         <v>36290.55919674835</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14699,7 @@
         <v>36947.45099674835</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14732,7 @@
         <v>37222.18134939072</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14765,7 @@
         <v>37646.04134939073</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14798,7 @@
         <v>37812.07974939072</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14831,7 @@
         <v>37162.38214939072</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14864,7 @@
         <v>37065.57194939072</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14897,7 @@
         <v>37672.15890386642</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14930,7 @@
         <v>37355.99620386642</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14963,7 @@
         <v>37355.99620386642</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14996,7 @@
         <v>37327.69620386642</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +15029,7 @@
         <v>37184.91010386642</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +15062,7 @@
         <v>36968.84160386642</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +15095,7 @@
         <v>37280.66970386642</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15128,7 @@
         <v>38337.10620386642</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15161,7 @@
         <v>39215.42540386642</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15194,7 @@
         <v>39084.84920386642</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15227,7 @@
         <v>38292.22630386642</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15260,7 @@
         <v>38230.62990386641</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15293,7 @@
         <v>38245.62990386641</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15326,7 @@
         <v>38039.86560386641</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15359,7 @@
         <v>37909.31030386641</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15392,7 @@
         <v>38238.78920386641</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15425,7 @@
         <v>38237.48050386641</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15458,7 @@
         <v>38237.48050386641</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15491,7 @@
         <v>38237.48050386641</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15524,7 @@
         <v>37746.00280386641</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15557,7 @@
         <v>37696.98960386641</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15590,7 @@
         <v>36924.24480386641</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15623,7 @@
         <v>36590.68080386641</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15656,7 @@
         <v>35874.07940386641</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15689,7 @@
         <v>31872.49780386641</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15722,7 @@
         <v>27642.17580386641</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15755,7 @@
         <v>30651.04720386641</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15788,7 @@
         <v>30651.04720386641</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15821,7 @@
         <v>30758.44450386641</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15854,7 @@
         <v>31008.44450386641</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15887,7 @@
         <v>30756.73732413528</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15920,7 @@
         <v>32633.62132413528</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15953,7 @@
         <v>32633.62132413528</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15986,7 @@
         <v>32073.86132413528</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +16019,7 @@
         <v>32039.27482413528</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +16052,7 @@
         <v>32215.93772413528</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +16085,7 @@
         <v>32003.43582413528</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +16118,7 @@
         <v>32382.88742413528</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16151,7 @@
         <v>32834.65382413528</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16184,7 @@
         <v>32855.53182413528</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16217,7 @@
         <v>32975.08542413528</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16192,7 +16316,7 @@
         <v>31983.50252413528</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16349,7 @@
         <v>31807.34782413528</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16382,7 @@
         <v>31812.00176996861</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16415,7 @@
         <v>32794.66596996861</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -19195,7 +19319,7 @@
         <v>34296.97072809808</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19624,7 +19748,7 @@
         <v>34688.44300924605</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19855,7 +19979,7 @@
         <v>32629.19809142635</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +20012,7 @@
         <v>32504.89379142636</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +20045,7 @@
         <v>32642.54159142635</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +20078,7 @@
         <v>32397.63649142635</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +20111,7 @@
         <v>32397.63649142635</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20144,7 @@
         <v>32085.25899142636</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20218,7 +20342,7 @@
         <v>34905.14659142635</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20375,7 @@
         <v>36603.13329142635</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20408,7 @@
         <v>36140.18746068908</v>
       </c>
       <c r="H603" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20441,7 @@
         <v>36140.18746068908</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20474,7 @@
         <v>36269.89926068908</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20507,7 @@
         <v>36152.08576068908</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20540,7 @@
         <v>36155.20706068908</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20573,7 @@
         <v>34962.53476068908</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20606,7 @@
         <v>33799.17252707739</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20639,7 @@
         <v>33939.03042707739</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22561,7 +22685,7 @@
         <v>32675.24480709825</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22718,7 @@
         <v>32570.86070709825</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22858,7 +22982,7 @@
         <v>32396.22370709825</v>
       </c>
       <c r="H681" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +23015,7 @@
         <v>32621.07150709825</v>
       </c>
       <c r="H682" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +23048,7 @@
         <v>32721.39580709825</v>
       </c>
       <c r="H683" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23815,7 +23939,7 @@
         <v>34808.67093736309</v>
       </c>
       <c r="H710" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23881,7 +24005,7 @@
         <v>33921.33963736309</v>
       </c>
       <c r="H712" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +24038,7 @@
         <v>33955.02814404367</v>
       </c>
       <c r="H713" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +24071,7 @@
         <v>33951.90684404367</v>
       </c>
       <c r="H714" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -28237,11 +28361,17 @@
         <v>20516.94011311833</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>9415</v>
+      </c>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28270,11 +28400,17 @@
         <v>20247.80101311833</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>9430</v>
+      </c>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28303,7 +28439,7 @@
         <v>20247.80101311833</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I846" t="n">
         <v>9425</v>
@@ -28311,7 +28447,7 @@
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L846" t="n">
@@ -28342,7 +28478,7 @@
         <v>19903.66771311833</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I847" t="n">
         <v>9425</v>
@@ -28381,7 +28517,7 @@
         <v>21235.16871311833</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I848" t="n">
         <v>9400</v>
@@ -28420,9 +28556,11 @@
         <v>21234.72221311833</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>9405</v>
+      </c>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
@@ -28457,9 +28595,11 @@
         <v>21096.94541311833</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>9400</v>
+      </c>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
@@ -28494,9 +28634,11 @@
         <v>21354.40981311833</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>9380</v>
+      </c>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
@@ -28531,9 +28673,11 @@
         <v>20247.65731311834</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>9400</v>
+      </c>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
@@ -28568,7 +28712,7 @@
         <v>22318.09111311833</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I853" t="n">
         <v>9365</v>
@@ -28607,7 +28751,7 @@
         <v>22420.03101311834</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I854" t="n">
         <v>9385</v>
@@ -28646,7 +28790,7 @@
         <v>22420.03101311834</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I855" t="n">
         <v>9400</v>
@@ -28685,7 +28829,7 @@
         <v>22829.96631311834</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I856" t="n">
         <v>9400</v>
@@ -28724,7 +28868,7 @@
         <v>22939.53941311834</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I857" t="n">
         <v>9420</v>
@@ -28763,7 +28907,7 @@
         <v>23159.12431311834</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I858" t="n">
         <v>9425</v>
@@ -29024,9 +29168,11 @@
         <v>22289.07847680311</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>9355</v>
+      </c>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
@@ -29098,9 +29244,11 @@
         <v>22476.76477680311</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>9350</v>
+      </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
@@ -29468,9 +29616,11 @@
         <v>23137.92670422035</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>9350</v>
+      </c>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
@@ -29542,7 +29692,7 @@
         <v>22472.06300422034</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I879" t="n">
         <v>9325</v>
@@ -29581,7 +29731,7 @@
         <v>22733.36300422034</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I880" t="n">
         <v>9345</v>
@@ -29620,9 +29770,11 @@
         <v>22695.29900422035</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>9385</v>
+      </c>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
@@ -29657,9 +29809,11 @@
         <v>22801.85201434288</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>9355</v>
+      </c>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
@@ -29694,7 +29848,7 @@
         <v>23560.88431434288</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I883" t="n">
         <v>9385</v>
@@ -29770,9 +29924,11 @@
         <v>23868.11401434288</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>9370</v>
+      </c>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
@@ -29807,9 +29963,11 @@
         <v>24549.81401434288</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>9385</v>
+      </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -29844,11 +30002,9 @@
         <v>24549.81401434288</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
-      </c>
-      <c r="I887" t="n">
-        <v>9395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
@@ -30031,9 +30187,11 @@
         <v>23712.80171434288</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>9350</v>
+      </c>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
@@ -30068,7 +30226,7 @@
         <v>22421.29301434288</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I893" t="n">
         <v>9350</v>
@@ -30107,7 +30265,7 @@
         <v>22365.67281434288</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I894" t="n">
         <v>9345</v>
@@ -30146,7 +30304,7 @@
         <v>22365.67281434288</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I895" t="n">
         <v>9325</v>
@@ -30185,7 +30343,7 @@
         <v>23273.35521434288</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I896" t="n">
         <v>9325</v>
@@ -30224,7 +30382,7 @@
         <v>23480.29621434288</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I897" t="n">
         <v>9355</v>
@@ -30263,11 +30421,9 @@
         <v>23433.28591434288</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
-      </c>
-      <c r="I898" t="n">
-        <v>9385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
@@ -30302,11 +30458,9 @@
         <v>23433.28591434288</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
-      </c>
-      <c r="I899" t="n">
-        <v>9370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
@@ -30341,11 +30495,9 @@
         <v>23385.70941434288</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
-      </c>
-      <c r="I900" t="n">
-        <v>9370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
@@ -30380,11 +30532,9 @@
         <v>23211.08881434288</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
-      </c>
-      <c r="I901" t="n">
-        <v>9365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
@@ -30419,11 +30569,9 @@
         <v>23884.94691434288</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
-      </c>
-      <c r="I902" t="n">
-        <v>9360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
@@ -30458,11 +30606,9 @@
         <v>23884.94691434288</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
-      </c>
-      <c r="I903" t="n">
-        <v>9370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
@@ -30571,7 +30717,7 @@
         <v>22884.94691434288</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I906" t="n">
         <v>9365</v>
@@ -30610,7 +30756,7 @@
         <v>23011.07691434288</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I907" t="n">
         <v>9350</v>
@@ -30649,9 +30795,11 @@
         <v>23024.52921434289</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>9375</v>
+      </c>
       <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
@@ -30686,9 +30834,11 @@
         <v>23933.64121434289</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>9385</v>
+      </c>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
@@ -31056,11 +31206,9 @@
         <v>23569.98291434289</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
-      </c>
-      <c r="I919" t="n">
-        <v>9415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
@@ -31095,11 +31243,9 @@
         <v>23569.98291434289</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
-      </c>
-      <c r="I920" t="n">
-        <v>9435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
@@ -31134,11 +31280,9 @@
         <v>23240.21071434289</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
-      </c>
-      <c r="I921" t="n">
-        <v>9435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
@@ -31173,11 +31317,9 @@
         <v>22472.52471434289</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
-      </c>
-      <c r="I922" t="n">
-        <v>9430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
@@ -31212,11 +31354,9 @@
         <v>22496.15661434289</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
-      </c>
-      <c r="I923" t="n">
-        <v>9415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
@@ -31251,11 +31391,9 @@
         <v>22604.42971434288</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
-      </c>
-      <c r="I924" t="n">
-        <v>9425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
@@ -31290,11 +31428,9 @@
         <v>22798.42971434288</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
-      </c>
-      <c r="I925" t="n">
-        <v>9430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
@@ -31329,11 +31465,9 @@
         <v>22436.97681434288</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
-      </c>
-      <c r="I926" t="n">
-        <v>9435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
@@ -31368,11 +31502,9 @@
         <v>22398.42461434289</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
-      </c>
-      <c r="I927" t="n">
-        <v>9425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
@@ -31407,11 +31539,9 @@
         <v>22100.10121434289</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
-      </c>
-      <c r="I928" t="n">
-        <v>9410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
@@ -31446,7 +31576,7 @@
         <v>22064.11821434289</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I929" t="n">
         <v>9390</v>
@@ -31485,7 +31615,7 @@
         <v>22064.11821434289</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I930" t="n">
         <v>9385</v>
@@ -31524,7 +31654,7 @@
         <v>21765.20491434288</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I931" t="n">
         <v>9385</v>
@@ -31563,7 +31693,7 @@
         <v>23046.20511434288</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I932" t="n">
         <v>9380</v>
@@ -31602,7 +31732,7 @@
         <v>20618.40271434288</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I933" t="n">
         <v>9390</v>
@@ -31641,7 +31771,7 @@
         <v>20879.82321434288</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I934" t="n">
         <v>9310</v>
@@ -31680,7 +31810,7 @@
         <v>21023.08291434288</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I935" t="n">
         <v>9375</v>
@@ -31719,7 +31849,7 @@
         <v>21006.83751434288</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I936" t="n">
         <v>9390</v>
@@ -31758,7 +31888,7 @@
         <v>21622.29621434288</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I937" t="n">
         <v>9380</v>
@@ -31797,7 +31927,7 @@
         <v>21622.29621434288</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I938" t="n">
         <v>9385</v>
@@ -31836,9 +31966,11 @@
         <v>21929.48511434288</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
-      </c>
-      <c r="I939" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I939" t="n">
+        <v>9385</v>
+      </c>
       <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
@@ -31873,7 +32005,7 @@
         <v>21014.93091434288</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I940" t="n">
         <v>9400</v>
@@ -31912,7 +32044,7 @@
         <v>23975.89731434288</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I941" t="n">
         <v>9305</v>
@@ -31951,7 +32083,7 @@
         <v>23462.04081434288</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I942" t="n">
         <v>9355</v>
@@ -31990,7 +32122,7 @@
         <v>22833.66671434288</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I943" t="n">
         <v>9330</v>
@@ -32029,7 +32161,7 @@
         <v>23412.44041434288</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I944" t="n">
         <v>9310</v>
@@ -32068,7 +32200,7 @@
         <v>23836.49501434288</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I945" t="n">
         <v>9315</v>
@@ -32107,7 +32239,7 @@
         <v>25104.25461434288</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I946" t="n">
         <v>9335</v>
@@ -32146,7 +32278,7 @@
         <v>25632.21711434289</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I947" t="n">
         <v>9350</v>
@@ -32185,7 +32317,7 @@
         <v>25632.21711434289</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I948" t="n">
         <v>9355</v>
@@ -32224,7 +32356,7 @@
         <v>25633.30391434289</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I949" t="n">
         <v>9355</v>
@@ -32263,7 +32395,7 @@
         <v>24639.82561434289</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I950" t="n">
         <v>9360</v>
@@ -32302,7 +32434,7 @@
         <v>23803.20101434289</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I951" t="n">
         <v>9330</v>
@@ -32341,7 +32473,7 @@
         <v>23803.20101434289</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I952" t="n">
         <v>9325</v>
@@ -32380,7 +32512,7 @@
         <v>24164.96331434289</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I953" t="n">
         <v>9325</v>
@@ -32419,7 +32551,7 @@
         <v>24396.54411434289</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I954" t="n">
         <v>9335</v>
@@ -32458,11 +32590,9 @@
         <v>24266.65151434289</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
-      </c>
-      <c r="I955" t="n">
-        <v>9370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
@@ -32497,11 +32627,9 @@
         <v>24576.85461434289</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
-      </c>
-      <c r="I956" t="n">
-        <v>9350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
@@ -32536,11 +32664,9 @@
         <v>24835.92951434289</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
-      </c>
-      <c r="I957" t="n">
-        <v>9360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
@@ -32612,11 +32738,9 @@
         <v>24571.89451434289</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
-      </c>
-      <c r="I959" t="n">
-        <v>9365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
@@ -32762,9 +32886,11 @@
         <v>23770.45201434289</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
-      </c>
-      <c r="I963" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I963" t="n">
+        <v>9315</v>
+      </c>
       <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr">
         <is>
@@ -32799,9 +32925,11 @@
         <v>22938.43951434288</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
-      </c>
-      <c r="I964" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I964" t="n">
+        <v>9315</v>
+      </c>
       <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
@@ -32836,7 +32964,7 @@
         <v>23743.80131434288</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I965" t="n">
         <v>9285</v>
@@ -32875,11 +33003,9 @@
         <v>23840.80131434288</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
-      </c>
-      <c r="I966" t="n">
-        <v>9335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
@@ -32988,9 +33114,11 @@
         <v>21669.91937809693</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
-      </c>
-      <c r="I969" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I969" t="n">
+        <v>9235</v>
+      </c>
       <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
@@ -33025,9 +33153,11 @@
         <v>20707.81467809693</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
-      </c>
-      <c r="I970" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I970" t="n">
+        <v>9260</v>
+      </c>
       <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
@@ -33062,9 +33192,11 @@
         <v>22707.72927809693</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
-      </c>
-      <c r="I971" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I971" t="n">
+        <v>9240</v>
+      </c>
       <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
@@ -33099,7 +33231,7 @@
         <v>22834.06927809693</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I972" t="n">
         <v>9265</v>
@@ -33138,9 +33270,11 @@
         <v>21539.87397809693</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
-      </c>
-      <c r="I973" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I973" t="n">
+        <v>9275</v>
+      </c>
       <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
@@ -33175,7 +33309,7 @@
         <v>24580.00297809693</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I974" t="n">
         <v>9260</v>
@@ -33214,9 +33348,11 @@
         <v>25375.72907809693</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
-      </c>
-      <c r="I975" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I975" t="n">
+        <v>9285</v>
+      </c>
       <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
@@ -33251,9 +33387,11 @@
         <v>24898.95897809693</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
-      </c>
-      <c r="I976" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I976" t="n">
+        <v>9300</v>
+      </c>
       <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
@@ -33288,9 +33426,11 @@
         <v>25606.67597809693</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
-      </c>
-      <c r="I977" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I977" t="n">
+        <v>9280</v>
+      </c>
       <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr">
         <is>
@@ -33325,9 +33465,11 @@
         <v>25794.92297809693</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
-      </c>
-      <c r="I978" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I978" t="n">
+        <v>9295</v>
+      </c>
       <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
@@ -33362,9 +33504,11 @@
         <v>25794.92297809693</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
-      </c>
-      <c r="I979" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I979" t="n">
+        <v>9305</v>
+      </c>
       <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
@@ -33399,11 +33543,9 @@
         <v>26208.21337809693</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
-      </c>
-      <c r="I980" t="n">
-        <v>9305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
@@ -33438,11 +33580,9 @@
         <v>25933.18197809693</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
-      </c>
-      <c r="I981" t="n">
-        <v>9315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
@@ -33514,9 +33654,11 @@
         <v>27149.58827809693</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
-      </c>
-      <c r="I983" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I983" t="n">
+        <v>9280</v>
+      </c>
       <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
@@ -33588,9 +33730,11 @@
         <v>28872.73157809693</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
-      </c>
-      <c r="I985" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I985" t="n">
+        <v>9315</v>
+      </c>
       <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
@@ -33884,11 +34028,9 @@
         <v>31282.87897809693</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
-      </c>
-      <c r="I993" t="n">
-        <v>9315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr">
         <is>
@@ -33923,11 +34065,9 @@
         <v>31282.87897809693</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
-      </c>
-      <c r="I994" t="n">
-        <v>9325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr">
         <is>
@@ -33962,7 +34102,7 @@
         <v>30665.57397809693</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I995" t="n">
         <v>9325</v>
@@ -34001,11 +34141,9 @@
         <v>30398.47617809693</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
-      </c>
-      <c r="I996" t="n">
-        <v>9305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr">
         <is>
@@ -34040,7 +34178,7 @@
         <v>30308.06097809693</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I997" t="n">
         <v>9300</v>
@@ -34079,11 +34217,9 @@
         <v>30725.30677809693</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
-      </c>
-      <c r="I998" t="n">
-        <v>9295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr">
         <is>
@@ -34118,11 +34254,9 @@
         <v>31257.80737809693</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
-      </c>
-      <c r="I999" t="n">
-        <v>9305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr">
         <is>
@@ -34157,11 +34291,9 @@
         <v>30652.14177809693</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1000" t="n">
-        <v>9330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr">
         <is>
@@ -34196,11 +34328,9 @@
         <v>28012.12427809693</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1001" t="n">
-        <v>9290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr">
         <is>
@@ -34235,11 +34365,9 @@
         <v>27761.44327809693</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1002" t="n">
-        <v>9270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr">
         <is>
@@ -34274,7 +34402,7 @@
         <v>29109.30827809693</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1003" t="n">
         <v>9260</v>
@@ -34313,7 +34441,7 @@
         <v>29503.96907809693</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1004" t="n">
         <v>9285</v>
@@ -34352,11 +34480,9 @@
         <v>30045.60207809693</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1005" t="n">
-        <v>9295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr">
         <is>
@@ -34613,11 +34739,9 @@
         <v>31239.15207809693</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1012" t="n">
-        <v>9270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr">
         <is>
@@ -34652,11 +34776,9 @@
         <v>30832.11467809693</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1013" t="n">
-        <v>9270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
@@ -34691,11 +34813,9 @@
         <v>30018.70527809693</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1014" t="n">
-        <v>9265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
@@ -34730,11 +34850,9 @@
         <v>31089.96407809693</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1015" t="n">
-        <v>9250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr">
         <is>
@@ -34769,11 +34887,9 @@
         <v>29714.42777809693</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1016" t="n">
-        <v>9275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr">
         <is>
@@ -34808,11 +34924,9 @@
         <v>30426.09107809693</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1017" t="n">
-        <v>9245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr">
         <is>
@@ -34847,11 +34961,9 @@
         <v>30406.09107809693</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1018" t="n">
-        <v>9295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr">
         <is>
@@ -34886,7 +34998,7 @@
         <v>31187.32587809693</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1019" t="n">
         <v>9255</v>
@@ -34925,11 +35037,9 @@
         <v>31350.53647809692</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1020" t="n">
-        <v>9295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr">
         <is>
@@ -34964,11 +35074,9 @@
         <v>31250.53657809693</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1021" t="n">
-        <v>9325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr">
         <is>
@@ -35003,11 +35111,9 @@
         <v>31502.04507809693</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1022" t="n">
-        <v>9315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr">
         <is>
@@ -35042,11 +35148,9 @@
         <v>31745.00717809693</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1023" t="n">
-        <v>9330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr">
         <is>
@@ -35081,11 +35185,9 @@
         <v>31745.00717809693</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1024" t="n">
-        <v>9335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr">
         <is>
@@ -35120,11 +35222,9 @@
         <v>31504.49197809692</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1025" t="n">
-        <v>9335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr">
         <is>
@@ -35159,11 +35259,9 @@
         <v>31452.45617809692</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1026" t="n">
-        <v>9325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr">
         <is>
@@ -35198,11 +35296,9 @@
         <v>31534.89487809692</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1027" t="n">
-        <v>9315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr">
         <is>
@@ -35237,11 +35333,9 @@
         <v>32148.88467809692</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1028" t="n">
-        <v>9320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr">
         <is>
@@ -35276,11 +35370,9 @@
         <v>34405.78447809692</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1029" t="n">
-        <v>9370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr">
         <is>
@@ -35315,11 +35407,9 @@
         <v>40787.41601048982</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1030" t="n">
-        <v>9435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
@@ -36279,18 +36369,16 @@
         <v>37707.76362858792</v>
       </c>
       <c r="H1056" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L1056" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1056" t="inlineStr"/>
       <c r="M1056" t="inlineStr"/>
     </row>
     <row r="1057">
@@ -36316,15 +36404,11 @@
         <v>39569.99599585318</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1057" t="inlineStr"/>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -36353,15 +36437,11 @@
         <v>37703.87959585318</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1058" t="inlineStr"/>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -36390,15 +36470,11 @@
         <v>38252.51379585319</v>
       </c>
       <c r="H1059" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1059" t="inlineStr"/>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -36427,15 +36503,11 @@
         <v>39034.03779585318</v>
       </c>
       <c r="H1060" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1060" t="inlineStr"/>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -36464,15 +36536,11 @@
         <v>40570.98312858792</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1061" t="inlineStr"/>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -36501,15 +36569,11 @@
         <v>39378.07732858792</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1062" t="inlineStr"/>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -36542,11 +36606,7 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1063" t="inlineStr"/>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -36575,15 +36635,11 @@
         <v>39275.34502858792</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1064" t="inlineStr"/>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -36612,15 +36668,11 @@
         <v>39141.96042858792</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1065" t="inlineStr"/>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -36649,15 +36701,11 @@
         <v>40076.47377973882</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1066" t="inlineStr"/>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -36686,15 +36734,11 @@
         <v>39976.47377973882</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1067" t="inlineStr"/>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -36723,15 +36767,11 @@
         <v>41434.22187973881</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1068" t="inlineStr"/>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -36760,15 +36800,11 @@
         <v>39833.70047973881</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1069" t="inlineStr"/>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -36797,15 +36833,11 @@
         <v>40115.78867973881</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1070" t="inlineStr"/>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -36834,15 +36866,11 @@
         <v>37539.48007973882</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1071" t="inlineStr"/>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -36871,15 +36899,11 @@
         <v>35174.40657973882</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1072" t="inlineStr"/>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -36908,15 +36932,11 @@
         <v>30785.05747973882</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1073" t="inlineStr"/>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -36945,15 +36965,11 @@
         <v>27351.60217973882</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1074" t="inlineStr"/>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -36982,15 +36998,11 @@
         <v>27301.34037973882</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1075" t="inlineStr"/>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -37019,15 +37031,11 @@
         <v>28728.60307973882</v>
       </c>
       <c r="H1076" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1076" t="inlineStr"/>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -37060,11 +37068,7 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1077" t="inlineStr"/>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -37097,11 +37101,7 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1078" t="inlineStr"/>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -37134,11 +37134,7 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1079" t="inlineStr"/>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -37171,11 +37167,7 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1080" t="inlineStr"/>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -37204,15 +37196,11 @@
         <v>32826.06667973881</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1081" t="inlineStr"/>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -37241,15 +37229,11 @@
         <v>33858.17357973881</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1082" t="inlineStr"/>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -37278,15 +37262,11 @@
         <v>31097.69906533552</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1083" t="inlineStr"/>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -37315,15 +37295,11 @@
         <v>30416.55136533552</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1084" t="inlineStr"/>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -37352,15 +37328,11 @@
         <v>31741.41162365597</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1085" t="inlineStr"/>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -37389,15 +37361,11 @@
         <v>31640.41162365597</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1086" t="inlineStr"/>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -37426,15 +37394,11 @@
         <v>31863.61882365597</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1087" t="inlineStr"/>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -37463,21 +37427,17 @@
         <v>30401.42032365597</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1088" t="inlineStr"/>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
       <c r="M1088" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest ETC.xlsx
+++ b/BackTest/2020-01-21 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>27750.10188927053</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>24357.01779658124</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9555</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,15 +517,11 @@
         <v>25580.32409658124</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -560,15 +550,11 @@
         <v>24119.16849658124</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -597,15 +583,11 @@
         <v>27618.52019658124</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -634,15 +616,11 @@
         <v>36937.29879658124</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -671,15 +649,11 @@
         <v>49003.46169369224</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -712,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -749,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -786,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -823,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -860,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -897,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -934,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -971,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1008,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1082,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1119,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1156,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1193,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1230,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1267,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1304,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1341,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1378,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1415,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1452,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1489,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1526,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1563,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1596,16 +1474,14 @@
         <v>42356.38012882943</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
       <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1631,7 +1507,7 @@
         <v>42754.68782882942</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1862,7 +1738,7 @@
         <v>44945.27567714984</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1895,7 +1771,7 @@
         <v>44034.79207714984</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1961,7 +1837,7 @@
         <v>41627.91777714984</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2027,7 +1903,7 @@
         <v>43929.21759820246</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2093,7 +1969,7 @@
         <v>43493.80630974693</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2126,7 +2002,7 @@
         <v>43216.25400974692</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2159,7 +2035,7 @@
         <v>41650.14780974692</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2192,7 +2068,7 @@
         <v>41052.65674755214</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2225,7 +2101,7 @@
         <v>41052.65674755214</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2258,7 +2134,7 @@
         <v>39122.31564755214</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2291,7 +2167,7 @@
         <v>37662.60794755214</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2324,7 +2200,7 @@
         <v>36583.51584755214</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2357,7 +2233,7 @@
         <v>36950.9550654563</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2390,7 +2266,7 @@
         <v>36596.5000654563</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2423,7 +2299,7 @@
         <v>36952.87789821038</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2456,7 +2332,7 @@
         <v>36952.87789821038</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2489,7 +2365,7 @@
         <v>36952.87789821038</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -10706,7 +10582,7 @@
         <v>36249.80828997118</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10805,7 +10681,7 @@
         <v>34933.31928997119</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -13214,7 +13090,7 @@
         <v>39228.13227231692</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13247,7 +13123,7 @@
         <v>40863.15997231692</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13280,7 +13156,7 @@
         <v>40724.22307231692</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13313,7 +13189,7 @@
         <v>40519.59293392635</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13445,7 +13321,7 @@
         <v>39595.71803392635</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13478,7 +13354,7 @@
         <v>39605.71803392635</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13511,7 +13387,7 @@
         <v>39164.51623392635</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13544,7 +13420,7 @@
         <v>38798.26483392635</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13577,7 +13453,7 @@
         <v>38686.38203392635</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13610,7 +13486,7 @@
         <v>38727.03233392635</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13643,7 +13519,7 @@
         <v>38712.65233392635</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13676,7 +13552,7 @@
         <v>38712.65233392635</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13709,7 +13585,7 @@
         <v>39179.83621164122</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13742,7 +13618,7 @@
         <v>39077.53621164122</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13775,7 +13651,7 @@
         <v>39649.63801164122</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13808,7 +13684,7 @@
         <v>41825.52401164122</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13841,7 +13717,7 @@
         <v>40391.38161164122</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13874,7 +13750,7 @@
         <v>38430.2593924771</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13907,7 +13783,7 @@
         <v>38581.4455924771</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13940,7 +13816,7 @@
         <v>38538.77399247709</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14039,7 +13915,7 @@
         <v>37574.68359247709</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14072,7 +13948,7 @@
         <v>37206.48479247709</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14105,7 +13981,7 @@
         <v>37665.51509247709</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14138,7 +14014,7 @@
         <v>37865.47769247709</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14171,7 +14047,7 @@
         <v>37767.66669247709</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14204,7 +14080,7 @@
         <v>38259.82909247709</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14237,7 +14113,7 @@
         <v>37463.33219247709</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14270,7 +14146,7 @@
         <v>37701.64989247709</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14303,7 +14179,7 @@
         <v>37601.66169247709</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14336,7 +14212,7 @@
         <v>38637.17711359668</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14369,7 +14245,7 @@
         <v>38746.87301359668</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14402,7 +14278,7 @@
         <v>39461.07160896092</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14435,7 +14311,7 @@
         <v>38450.36240896092</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14468,7 +14344,7 @@
         <v>38450.36240896092</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14501,7 +14377,7 @@
         <v>38641.90220896092</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14534,7 +14410,7 @@
         <v>38286.54609674835</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14567,7 +14443,7 @@
         <v>37292.36609674835</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14600,7 +14476,7 @@
         <v>37507.05569674835</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14633,7 +14509,7 @@
         <v>36827.84639674835</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14666,7 +14542,7 @@
         <v>36290.55919674835</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14699,7 +14575,7 @@
         <v>36947.45099674835</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14732,7 +14608,7 @@
         <v>37222.18134939072</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14765,7 +14641,7 @@
         <v>37646.04134939073</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14798,7 +14674,7 @@
         <v>37812.07974939072</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14831,7 +14707,7 @@
         <v>37162.38214939072</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14864,7 +14740,7 @@
         <v>37065.57194939072</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14897,7 +14773,7 @@
         <v>37672.15890386642</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14930,7 +14806,7 @@
         <v>37355.99620386642</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14963,7 +14839,7 @@
         <v>37355.99620386642</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14996,7 +14872,7 @@
         <v>37327.69620386642</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15029,7 +14905,7 @@
         <v>37184.91010386642</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15062,7 +14938,7 @@
         <v>36968.84160386642</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15095,7 +14971,7 @@
         <v>37280.66970386642</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15128,7 +15004,7 @@
         <v>38337.10620386642</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15161,7 +15037,7 @@
         <v>39215.42540386642</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15194,7 +15070,7 @@
         <v>39084.84920386642</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15227,7 +15103,7 @@
         <v>38292.22630386642</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15260,7 +15136,7 @@
         <v>38230.62990386641</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15293,7 +15169,7 @@
         <v>38245.62990386641</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15326,7 +15202,7 @@
         <v>38039.86560386641</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15359,7 +15235,7 @@
         <v>37909.31030386641</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15392,7 +15268,7 @@
         <v>38238.78920386641</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15425,7 +15301,7 @@
         <v>38237.48050386641</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15458,7 +15334,7 @@
         <v>38237.48050386641</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15491,7 +15367,7 @@
         <v>38237.48050386641</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15524,7 +15400,7 @@
         <v>37746.00280386641</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15557,7 +15433,7 @@
         <v>37696.98960386641</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15590,7 +15466,7 @@
         <v>36924.24480386641</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15623,7 +15499,7 @@
         <v>36590.68080386641</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15656,7 +15532,7 @@
         <v>35874.07940386641</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15689,7 +15565,7 @@
         <v>31872.49780386641</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15722,7 +15598,7 @@
         <v>27642.17580386641</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15755,7 +15631,7 @@
         <v>30651.04720386641</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15788,7 +15664,7 @@
         <v>30651.04720386641</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15821,7 +15697,7 @@
         <v>30758.44450386641</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15854,7 +15730,7 @@
         <v>31008.44450386641</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15887,7 +15763,7 @@
         <v>30756.73732413528</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15920,7 +15796,7 @@
         <v>32633.62132413528</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15953,7 +15829,7 @@
         <v>32633.62132413528</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15986,7 +15862,7 @@
         <v>32073.86132413528</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16019,7 +15895,7 @@
         <v>32039.27482413528</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16052,7 +15928,7 @@
         <v>32215.93772413528</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16085,7 +15961,7 @@
         <v>32003.43582413528</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16118,7 +15994,7 @@
         <v>32382.88742413528</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16151,7 +16027,7 @@
         <v>32834.65382413528</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16184,7 +16060,7 @@
         <v>32855.53182413528</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16217,7 +16093,7 @@
         <v>32975.08542413528</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16316,7 +16192,7 @@
         <v>31983.50252413528</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16349,7 +16225,7 @@
         <v>31807.34782413528</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16382,7 +16258,7 @@
         <v>31812.00176996861</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16415,7 +16291,7 @@
         <v>32794.66596996861</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -26711,11 +26587,17 @@
         <v>24148.63690815977</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>9295</v>
+      </c>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26744,11 +26626,17 @@
         <v>22096.71630815977</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>9320</v>
+      </c>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26777,11 +26665,17 @@
         <v>22882.8862508492</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>9295</v>
+      </c>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26810,11 +26704,17 @@
         <v>22167.7242508492</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>9365</v>
+      </c>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26843,11 +26743,17 @@
         <v>21985.2080508492</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>9355</v>
+      </c>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26876,11 +26782,17 @@
         <v>21985.2080508492</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>9345</v>
+      </c>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26909,11 +26821,17 @@
         <v>20845.1436508492</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>9345</v>
+      </c>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26946,7 +26864,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26975,11 +26897,17 @@
         <v>19458.3534508492</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>9300</v>
+      </c>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27008,11 +26936,17 @@
         <v>19461.5791508492</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>9300</v>
+      </c>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27041,11 +26975,17 @@
         <v>19721.60415084921</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>9325</v>
+      </c>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27078,7 +27018,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27111,7 +27055,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27144,7 +27092,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27177,7 +27129,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27210,7 +27166,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27243,7 +27203,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27276,7 +27240,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27309,7 +27277,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27342,7 +27314,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27375,7 +27351,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27408,7 +27388,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27441,7 +27425,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27474,7 +27462,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27507,7 +27499,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27540,7 +27536,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27573,7 +27573,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27606,7 +27610,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27639,7 +27647,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27672,7 +27684,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27705,7 +27721,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27738,7 +27758,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27771,7 +27795,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27804,7 +27832,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27837,7 +27869,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27870,7 +27906,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27903,7 +27943,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27936,7 +27980,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27969,7 +28017,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28002,7 +28054,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28035,7 +28091,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28068,7 +28128,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28101,7 +28165,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28134,7 +28202,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28167,7 +28239,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28200,7 +28276,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28233,7 +28313,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28266,7 +28350,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28299,7 +28387,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28332,7 +28424,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28361,15 +28457,13 @@
         <v>20516.94011311833</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
-      </c>
-      <c r="I844" t="n">
-        <v>9415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L844" t="n">
@@ -28400,11 +28494,9 @@
         <v>20247.80101311833</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
-      </c>
-      <c r="I845" t="n">
-        <v>9430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
@@ -28439,11 +28531,9 @@
         <v>20247.80101311833</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
-      </c>
-      <c r="I846" t="n">
-        <v>9425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
@@ -28478,11 +28568,9 @@
         <v>19903.66771311833</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
-      </c>
-      <c r="I847" t="n">
-        <v>9425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
@@ -28517,11 +28605,9 @@
         <v>21235.16871311833</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
-      </c>
-      <c r="I848" t="n">
-        <v>9400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
@@ -28556,11 +28642,9 @@
         <v>21234.72221311833</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
-      </c>
-      <c r="I849" t="n">
-        <v>9405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
@@ -28595,11 +28679,9 @@
         <v>21096.94541311833</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
-      </c>
-      <c r="I850" t="n">
-        <v>9400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
@@ -28634,11 +28716,9 @@
         <v>21354.40981311833</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
-      </c>
-      <c r="I851" t="n">
-        <v>9380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
@@ -28673,11 +28753,9 @@
         <v>20247.65731311834</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
-      </c>
-      <c r="I852" t="n">
-        <v>9400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
@@ -28712,11 +28790,9 @@
         <v>22318.09111311833</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
-      </c>
-      <c r="I853" t="n">
-        <v>9365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
@@ -28751,11 +28827,9 @@
         <v>22420.03101311834</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
-      </c>
-      <c r="I854" t="n">
-        <v>9385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
@@ -28790,11 +28864,9 @@
         <v>22420.03101311834</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
-      </c>
-      <c r="I855" t="n">
-        <v>9400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
@@ -28829,11 +28901,9 @@
         <v>22829.96631311834</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
-      </c>
-      <c r="I856" t="n">
-        <v>9400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
@@ -28868,11 +28938,9 @@
         <v>22939.53941311834</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
-      </c>
-      <c r="I857" t="n">
-        <v>9420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
@@ -28907,11 +28975,9 @@
         <v>23159.12431311834</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
-      </c>
-      <c r="I858" t="n">
-        <v>9425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
@@ -29168,11 +29234,9 @@
         <v>22289.07847680311</v>
       </c>
       <c r="H865" t="n">
-        <v>1</v>
-      </c>
-      <c r="I865" t="n">
-        <v>9355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
@@ -29207,9 +29271,11 @@
         <v>22033.45797680311</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>9375</v>
+      </c>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
@@ -29283,9 +29349,11 @@
         <v>23294.25505088702</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>9360</v>
+      </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -29320,9 +29388,11 @@
         <v>22854.39745088702</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>9415</v>
+      </c>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
@@ -29394,9 +29464,11 @@
         <v>23634.20170422035</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>9375</v>
+      </c>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
@@ -29655,9 +29727,11 @@
         <v>22400.53100422035</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>9370</v>
+      </c>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
@@ -29848,11 +29922,9 @@
         <v>23560.88431434288</v>
       </c>
       <c r="H883" t="n">
-        <v>1</v>
-      </c>
-      <c r="I883" t="n">
-        <v>9385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
@@ -29924,11 +29996,9 @@
         <v>23868.11401434288</v>
       </c>
       <c r="H885" t="n">
-        <v>1</v>
-      </c>
-      <c r="I885" t="n">
-        <v>9370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
@@ -29963,11 +30033,9 @@
         <v>24549.81401434288</v>
       </c>
       <c r="H886" t="n">
-        <v>1</v>
-      </c>
-      <c r="I886" t="n">
-        <v>9385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -30187,11 +30255,9 @@
         <v>23712.80171434288</v>
       </c>
       <c r="H892" t="n">
-        <v>1</v>
-      </c>
-      <c r="I892" t="n">
-        <v>9350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
@@ -30226,11 +30292,9 @@
         <v>22421.29301434288</v>
       </c>
       <c r="H893" t="n">
-        <v>1</v>
-      </c>
-      <c r="I893" t="n">
-        <v>9350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
@@ -30265,11 +30329,9 @@
         <v>22365.67281434288</v>
       </c>
       <c r="H894" t="n">
-        <v>1</v>
-      </c>
-      <c r="I894" t="n">
-        <v>9345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
@@ -30304,11 +30366,9 @@
         <v>22365.67281434288</v>
       </c>
       <c r="H895" t="n">
-        <v>1</v>
-      </c>
-      <c r="I895" t="n">
-        <v>9325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
@@ -30343,11 +30403,9 @@
         <v>23273.35521434288</v>
       </c>
       <c r="H896" t="n">
-        <v>1</v>
-      </c>
-      <c r="I896" t="n">
-        <v>9325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
@@ -30382,11 +30440,9 @@
         <v>23480.29621434288</v>
       </c>
       <c r="H897" t="n">
-        <v>1</v>
-      </c>
-      <c r="I897" t="n">
-        <v>9355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
@@ -30717,11 +30773,9 @@
         <v>22884.94691434288</v>
       </c>
       <c r="H906" t="n">
-        <v>1</v>
-      </c>
-      <c r="I906" t="n">
-        <v>9365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
@@ -30756,11 +30810,9 @@
         <v>23011.07691434288</v>
       </c>
       <c r="H907" t="n">
-        <v>1</v>
-      </c>
-      <c r="I907" t="n">
-        <v>9350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
@@ -30795,11 +30847,9 @@
         <v>23024.52921434289</v>
       </c>
       <c r="H908" t="n">
-        <v>1</v>
-      </c>
-      <c r="I908" t="n">
-        <v>9375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
@@ -30834,11 +30884,9 @@
         <v>23933.64121434289</v>
       </c>
       <c r="H909" t="n">
-        <v>1</v>
-      </c>
-      <c r="I909" t="n">
-        <v>9385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
@@ -31576,11 +31624,9 @@
         <v>22064.11821434289</v>
       </c>
       <c r="H929" t="n">
-        <v>1</v>
-      </c>
-      <c r="I929" t="n">
-        <v>9390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
@@ -31615,11 +31661,9 @@
         <v>22064.11821434289</v>
       </c>
       <c r="H930" t="n">
-        <v>1</v>
-      </c>
-      <c r="I930" t="n">
-        <v>9385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
@@ -31654,11 +31698,9 @@
         <v>21765.20491434288</v>
       </c>
       <c r="H931" t="n">
-        <v>1</v>
-      </c>
-      <c r="I931" t="n">
-        <v>9385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
@@ -31693,11 +31735,9 @@
         <v>23046.20511434288</v>
       </c>
       <c r="H932" t="n">
-        <v>1</v>
-      </c>
-      <c r="I932" t="n">
-        <v>9380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
@@ -31732,11 +31772,9 @@
         <v>20618.40271434288</v>
       </c>
       <c r="H933" t="n">
-        <v>1</v>
-      </c>
-      <c r="I933" t="n">
-        <v>9390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
@@ -31771,11 +31809,9 @@
         <v>20879.82321434288</v>
       </c>
       <c r="H934" t="n">
-        <v>1</v>
-      </c>
-      <c r="I934" t="n">
-        <v>9310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
@@ -31810,11 +31846,9 @@
         <v>21023.08291434288</v>
       </c>
       <c r="H935" t="n">
-        <v>1</v>
-      </c>
-      <c r="I935" t="n">
-        <v>9375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
@@ -31849,11 +31883,9 @@
         <v>21006.83751434288</v>
       </c>
       <c r="H936" t="n">
-        <v>1</v>
-      </c>
-      <c r="I936" t="n">
-        <v>9390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
@@ -31888,11 +31920,9 @@
         <v>21622.29621434288</v>
       </c>
       <c r="H937" t="n">
-        <v>1</v>
-      </c>
-      <c r="I937" t="n">
-        <v>9380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
@@ -31927,11 +31957,9 @@
         <v>21622.29621434288</v>
       </c>
       <c r="H938" t="n">
-        <v>1</v>
-      </c>
-      <c r="I938" t="n">
-        <v>9385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
@@ -31966,11 +31994,9 @@
         <v>21929.48511434288</v>
       </c>
       <c r="H939" t="n">
-        <v>1</v>
-      </c>
-      <c r="I939" t="n">
-        <v>9385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
@@ -32005,11 +32031,9 @@
         <v>21014.93091434288</v>
       </c>
       <c r="H940" t="n">
-        <v>1</v>
-      </c>
-      <c r="I940" t="n">
-        <v>9400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
@@ -32044,11 +32068,9 @@
         <v>23975.89731434288</v>
       </c>
       <c r="H941" t="n">
-        <v>1</v>
-      </c>
-      <c r="I941" t="n">
-        <v>9305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
@@ -32083,11 +32105,9 @@
         <v>23462.04081434288</v>
       </c>
       <c r="H942" t="n">
-        <v>1</v>
-      </c>
-      <c r="I942" t="n">
-        <v>9355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
@@ -32122,11 +32142,9 @@
         <v>22833.66671434288</v>
       </c>
       <c r="H943" t="n">
-        <v>1</v>
-      </c>
-      <c r="I943" t="n">
-        <v>9330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
@@ -32161,11 +32179,9 @@
         <v>23412.44041434288</v>
       </c>
       <c r="H944" t="n">
-        <v>1</v>
-      </c>
-      <c r="I944" t="n">
-        <v>9310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
@@ -32200,11 +32216,9 @@
         <v>23836.49501434288</v>
       </c>
       <c r="H945" t="n">
-        <v>1</v>
-      </c>
-      <c r="I945" t="n">
-        <v>9315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
@@ -32239,11 +32253,9 @@
         <v>25104.25461434288</v>
       </c>
       <c r="H946" t="n">
-        <v>1</v>
-      </c>
-      <c r="I946" t="n">
-        <v>9335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
@@ -32278,11 +32290,9 @@
         <v>25632.21711434289</v>
       </c>
       <c r="H947" t="n">
-        <v>1</v>
-      </c>
-      <c r="I947" t="n">
-        <v>9350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
@@ -32317,11 +32327,9 @@
         <v>25632.21711434289</v>
       </c>
       <c r="H948" t="n">
-        <v>1</v>
-      </c>
-      <c r="I948" t="n">
-        <v>9355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
@@ -32356,11 +32364,9 @@
         <v>25633.30391434289</v>
       </c>
       <c r="H949" t="n">
-        <v>1</v>
-      </c>
-      <c r="I949" t="n">
-        <v>9355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
@@ -32395,11 +32401,9 @@
         <v>24639.82561434289</v>
       </c>
       <c r="H950" t="n">
-        <v>1</v>
-      </c>
-      <c r="I950" t="n">
-        <v>9360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
@@ -32434,11 +32438,9 @@
         <v>23803.20101434289</v>
       </c>
       <c r="H951" t="n">
-        <v>1</v>
-      </c>
-      <c r="I951" t="n">
-        <v>9330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
@@ -32473,11 +32475,9 @@
         <v>23803.20101434289</v>
       </c>
       <c r="H952" t="n">
-        <v>1</v>
-      </c>
-      <c r="I952" t="n">
-        <v>9325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
@@ -32512,11 +32512,9 @@
         <v>24164.96331434289</v>
       </c>
       <c r="H953" t="n">
-        <v>1</v>
-      </c>
-      <c r="I953" t="n">
-        <v>9325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
@@ -32551,11 +32549,9 @@
         <v>24396.54411434289</v>
       </c>
       <c r="H954" t="n">
-        <v>1</v>
-      </c>
-      <c r="I954" t="n">
-        <v>9335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
@@ -32886,11 +32882,9 @@
         <v>23770.45201434289</v>
       </c>
       <c r="H963" t="n">
-        <v>1</v>
-      </c>
-      <c r="I963" t="n">
-        <v>9315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr">
         <is>
@@ -33003,9 +32997,11 @@
         <v>23840.80131434288</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
-      </c>
-      <c r="I966" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I966" t="n">
+        <v>9335</v>
+      </c>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
@@ -33040,9 +33036,11 @@
         <v>22689.85041434288</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
-      </c>
-      <c r="I967" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I967" t="n">
+        <v>9340</v>
+      </c>
       <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
@@ -33504,11 +33502,9 @@
         <v>25794.92297809693</v>
       </c>
       <c r="H979" t="n">
-        <v>1</v>
-      </c>
-      <c r="I979" t="n">
-        <v>9305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
@@ -33654,11 +33650,9 @@
         <v>27149.58827809693</v>
       </c>
       <c r="H983" t="n">
-        <v>1</v>
-      </c>
-      <c r="I983" t="n">
-        <v>9280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
@@ -33730,11 +33724,9 @@
         <v>28872.73157809693</v>
       </c>
       <c r="H985" t="n">
-        <v>1</v>
-      </c>
-      <c r="I985" t="n">
-        <v>9315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
@@ -34102,11 +34094,9 @@
         <v>30665.57397809693</v>
       </c>
       <c r="H995" t="n">
-        <v>1</v>
-      </c>
-      <c r="I995" t="n">
-        <v>9325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr">
         <is>
@@ -34178,11 +34168,9 @@
         <v>30308.06097809693</v>
       </c>
       <c r="H997" t="n">
-        <v>1</v>
-      </c>
-      <c r="I997" t="n">
-        <v>9300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr">
         <is>
@@ -34402,11 +34390,9 @@
         <v>29109.30827809693</v>
       </c>
       <c r="H1003" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1003" t="n">
-        <v>9260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr">
         <is>
@@ -34441,11 +34427,9 @@
         <v>29503.96907809693</v>
       </c>
       <c r="H1004" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1004" t="n">
-        <v>9285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr">
         <is>
@@ -34998,11 +34982,9 @@
         <v>31187.32587809693</v>
       </c>
       <c r="H1019" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1019" t="n">
-        <v>9255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr">
         <is>
@@ -36369,16 +36351,18 @@
         <v>37707.76362858792</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L1056" t="inlineStr"/>
+      <c r="L1056" t="n">
+        <v>1</v>
+      </c>
       <c r="M1056" t="inlineStr"/>
     </row>
     <row r="1057">
@@ -36404,11 +36388,15 @@
         <v>39569.99599585318</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -36437,11 +36425,15 @@
         <v>37703.87959585318</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -36470,11 +36462,15 @@
         <v>38252.51379585319</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -36503,11 +36499,15 @@
         <v>39034.03779585318</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -36536,11 +36536,15 @@
         <v>40570.98312858792</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -36569,11 +36573,15 @@
         <v>39378.07732858792</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -36606,7 +36614,11 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -36635,11 +36647,15 @@
         <v>39275.34502858792</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -36668,11 +36684,15 @@
         <v>39141.96042858792</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -36701,11 +36721,15 @@
         <v>40076.47377973882</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -36734,11 +36758,15 @@
         <v>39976.47377973882</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -36767,11 +36795,15 @@
         <v>41434.22187973881</v>
       </c>
       <c r="H1068" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -36800,11 +36832,15 @@
         <v>39833.70047973881</v>
       </c>
       <c r="H1069" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr"/>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -36833,11 +36869,15 @@
         <v>40115.78867973881</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr"/>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -36866,11 +36906,15 @@
         <v>37539.48007973882</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -36899,11 +36943,15 @@
         <v>35174.40657973882</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -36932,11 +36980,15 @@
         <v>30785.05747973882</v>
       </c>
       <c r="H1073" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -36965,11 +37017,15 @@
         <v>27351.60217973882</v>
       </c>
       <c r="H1074" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -36998,11 +37054,15 @@
         <v>27301.34037973882</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -37035,7 +37095,11 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -37068,7 +37132,11 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -37101,7 +37169,11 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -37134,7 +37206,11 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -37167,7 +37243,11 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -37196,11 +37276,15 @@
         <v>32826.06667973881</v>
       </c>
       <c r="H1081" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -37229,11 +37313,15 @@
         <v>33858.17357973881</v>
       </c>
       <c r="H1082" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -37262,11 +37350,15 @@
         <v>31097.69906533552</v>
       </c>
       <c r="H1083" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -37295,11 +37387,15 @@
         <v>30416.55136533552</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -37328,11 +37424,15 @@
         <v>31741.41162365597</v>
       </c>
       <c r="H1085" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -37361,11 +37461,15 @@
         <v>31640.41162365597</v>
       </c>
       <c r="H1086" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -37394,11 +37498,15 @@
         <v>31863.61882365597</v>
       </c>
       <c r="H1087" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -37427,17 +37535,21 @@
         <v>30401.42032365597</v>
       </c>
       <c r="H1088" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
       <c r="M1088" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest ETC.xlsx
+++ b/BackTest/2020-01-21 BackTest ETC.xlsx
@@ -517,7 +517,7 @@
         <v>25580.32409658124</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>24119.16849658124</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>27618.52019658124</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>36937.29879658124</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>49003.46169369224</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>50435.58440651275</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>48058.09400651275</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>46870.50690651275</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>41625.88790651275</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>39752.79930651274</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>41432.39350651275</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>42985.54560651275</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>43180.49726022119</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>45427.1172602212</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>43428.23826022119</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>39809.38872882942</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>38547.67402882942</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>41306.74762882943</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>42303.47512882943</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>42570.18072882943</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>42356.38012882943</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>42754.68782882942</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>44642.13022882942</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>44238.25777714984</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>44575.04247714984</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>44945.27567714984</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>44034.79207714984</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>42768.61187714984</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>40391.38161164122</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>38430.2593924771</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>38581.4455924771</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>38538.77399247709</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>37574.68359247709</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>37574.68359247709</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>37574.68359247709</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>37206.48479247709</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>37865.47769247709</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>37767.66669247709</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>38259.82909247709</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>37463.33219247709</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>37701.64989247709</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>39461.07160896092</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>38450.36240896092</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>38450.36240896092</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>38641.90220896092</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>38286.54609674835</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>37292.36609674835</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>37812.07974939072</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>37162.38214939072</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>37065.57194939072</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>39084.84920386642</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -26521,11 +26521,17 @@
         <v>20243.57850815977</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>9360</v>
+      </c>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26554,11 +26560,17 @@
         <v>23468.27890815977</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>9285</v>
+      </c>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26595,7 +26607,7 @@
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L794" t="n">
@@ -26665,11 +26677,9 @@
         <v>22882.8862508492</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
-      </c>
-      <c r="I796" t="n">
-        <v>9295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
@@ -26704,11 +26714,9 @@
         <v>22167.7242508492</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
-      </c>
-      <c r="I797" t="n">
-        <v>9365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
@@ -26743,11 +26751,9 @@
         <v>21985.2080508492</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
-      </c>
-      <c r="I798" t="n">
-        <v>9355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
@@ -26782,11 +26788,9 @@
         <v>21985.2080508492</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
-      </c>
-      <c r="I799" t="n">
-        <v>9345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
@@ -26821,11 +26825,9 @@
         <v>20845.1436508492</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
-      </c>
-      <c r="I800" t="n">
-        <v>9345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
@@ -26897,11 +26899,9 @@
         <v>19458.3534508492</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
-      </c>
-      <c r="I802" t="n">
-        <v>9300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
@@ -26936,11 +26936,9 @@
         <v>19461.5791508492</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
-      </c>
-      <c r="I803" t="n">
-        <v>9300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
@@ -26975,11 +26973,9 @@
         <v>19721.60415084921</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
-      </c>
-      <c r="I804" t="n">
-        <v>9325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
@@ -27865,9 +27861,11 @@
         <v>21144.51515084921</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>9425</v>
+      </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
@@ -28050,9 +28048,11 @@
         <v>20970.56631311834</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>9420</v>
+      </c>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
@@ -28235,9 +28235,11 @@
         <v>20892.10171311834</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>9395</v>
+      </c>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
@@ -28272,9 +28274,11 @@
         <v>20875.74651311833</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>9430</v>
+      </c>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
@@ -28309,9 +28313,11 @@
         <v>20895.74651311833</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>9400</v>
+      </c>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
@@ -28346,9 +28352,11 @@
         <v>20915.31471311834</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>9415</v>
+      </c>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
@@ -28383,9 +28391,11 @@
         <v>20915.31471311834</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>9430</v>
+      </c>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
@@ -28420,9 +28430,11 @@
         <v>20456.84011311833</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>9430</v>
+      </c>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
@@ -28457,9 +28469,11 @@
         <v>20516.94011311833</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>9415</v>
+      </c>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
@@ -28494,9 +28508,11 @@
         <v>20247.80101311833</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>9430</v>
+      </c>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
@@ -28531,9 +28547,11 @@
         <v>20247.80101311833</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>9425</v>
+      </c>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
@@ -28568,9 +28586,11 @@
         <v>19903.66771311833</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>9425</v>
+      </c>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
@@ -28605,9 +28625,11 @@
         <v>21235.16871311833</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>9400</v>
+      </c>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
@@ -28642,9 +28664,11 @@
         <v>21234.72221311833</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>9405</v>
+      </c>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
@@ -28679,9 +28703,11 @@
         <v>21096.94541311833</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>9400</v>
+      </c>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
@@ -28716,9 +28742,11 @@
         <v>21354.40981311833</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>9380</v>
+      </c>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
@@ -28753,9 +28781,11 @@
         <v>20247.65731311834</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>9400</v>
+      </c>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
@@ -28790,9 +28820,11 @@
         <v>22318.09111311833</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>9365</v>
+      </c>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
@@ -28827,9 +28859,11 @@
         <v>22420.03101311834</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>9385</v>
+      </c>
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
@@ -28864,9 +28898,11 @@
         <v>22420.03101311834</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>9400</v>
+      </c>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
@@ -28901,9 +28937,11 @@
         <v>22829.96631311834</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>9400</v>
+      </c>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
@@ -28938,9 +28976,11 @@
         <v>22939.53941311834</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>9420</v>
+      </c>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
@@ -28975,9 +29015,11 @@
         <v>23159.12431311834</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>9425</v>
+      </c>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
@@ -29012,9 +29054,11 @@
         <v>22669.47601311834</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>9430</v>
+      </c>
       <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
@@ -29049,9 +29093,11 @@
         <v>23080.47601311834</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>9415</v>
+      </c>
       <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
@@ -29086,9 +29132,11 @@
         <v>23000.09601311834</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>9435</v>
+      </c>
       <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
@@ -29123,9 +29171,11 @@
         <v>22320.42911311834</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>9430</v>
+      </c>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
@@ -29160,9 +29210,11 @@
         <v>22326.38911311834</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>9380</v>
+      </c>
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
@@ -29197,9 +29249,11 @@
         <v>22088.33287680311</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>9395</v>
+      </c>
       <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
@@ -29234,9 +29288,11 @@
         <v>22289.07847680311</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>9355</v>
+      </c>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
@@ -29427,9 +29483,11 @@
         <v>22854.99750422035</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>9365</v>
+      </c>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
@@ -29503,9 +29561,11 @@
         <v>23327.94110422035</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>9390</v>
+      </c>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
@@ -29540,9 +29600,11 @@
         <v>23191.14110422035</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>9385</v>
+      </c>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
@@ -29577,9 +29639,11 @@
         <v>23191.14110422035</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>9355</v>
+      </c>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
@@ -29614,9 +29678,11 @@
         <v>23136.10220422035</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>9355</v>
+      </c>
       <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
@@ -29651,9 +29717,11 @@
         <v>23136.10220422035</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>9350</v>
+      </c>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
@@ -29922,9 +29990,11 @@
         <v>23560.88431434288</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>9385</v>
+      </c>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
@@ -29959,9 +30029,11 @@
         <v>23253.01401434288</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>9390</v>
+      </c>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
@@ -29996,9 +30068,11 @@
         <v>23868.11401434288</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>9370</v>
+      </c>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
@@ -30033,9 +30107,11 @@
         <v>24549.81401434288</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>9385</v>
+      </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -30070,9 +30146,11 @@
         <v>24549.81401434288</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>9395</v>
+      </c>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
@@ -30107,9 +30185,11 @@
         <v>24611.35191434288</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>9395</v>
+      </c>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
@@ -30144,9 +30224,11 @@
         <v>24372.95981434288</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>9400</v>
+      </c>
       <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
@@ -30181,9 +30263,11 @@
         <v>24373.05441434288</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>9365</v>
+      </c>
       <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
@@ -30218,9 +30302,11 @@
         <v>23712.80171434288</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>9390</v>
+      </c>
       <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
@@ -30255,9 +30341,11 @@
         <v>23712.80171434288</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>9350</v>
+      </c>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
@@ -30292,9 +30380,11 @@
         <v>22421.29301434288</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>9350</v>
+      </c>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
@@ -30329,9 +30419,11 @@
         <v>22365.67281434288</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>9345</v>
+      </c>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
@@ -30366,9 +30458,11 @@
         <v>22365.67281434288</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>9325</v>
+      </c>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
@@ -30403,9 +30497,11 @@
         <v>23273.35521434288</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>9325</v>
+      </c>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
@@ -30440,9 +30536,11 @@
         <v>23480.29621434288</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>9355</v>
+      </c>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
@@ -30477,9 +30575,11 @@
         <v>23433.28591434288</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>9385</v>
+      </c>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
@@ -30514,9 +30614,11 @@
         <v>23433.28591434288</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>9370</v>
+      </c>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
@@ -30551,9 +30653,11 @@
         <v>23385.70941434288</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>9370</v>
+      </c>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
@@ -30588,9 +30692,11 @@
         <v>23211.08881434288</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>9365</v>
+      </c>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
@@ -30625,9 +30731,11 @@
         <v>23884.94691434288</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>9360</v>
+      </c>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
@@ -30662,9 +30770,11 @@
         <v>23884.94691434288</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>9370</v>
+      </c>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
@@ -30699,9 +30809,11 @@
         <v>23884.94691434288</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>9370</v>
+      </c>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
@@ -30736,9 +30848,11 @@
         <v>22989.33571434288</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>9370</v>
+      </c>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
@@ -30773,9 +30887,11 @@
         <v>22884.94691434288</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>9365</v>
+      </c>
       <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
@@ -30810,9 +30926,11 @@
         <v>23011.07691434288</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>9350</v>
+      </c>
       <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
@@ -30847,9 +30965,11 @@
         <v>23024.52921434289</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>9375</v>
+      </c>
       <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
@@ -30884,9 +31004,11 @@
         <v>23933.64121434289</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>9385</v>
+      </c>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
@@ -30921,9 +31043,11 @@
         <v>23368.93101434288</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>9445</v>
+      </c>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
@@ -30958,9 +31082,11 @@
         <v>23791.99181434288</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>9425</v>
+      </c>
       <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
@@ -30995,9 +31121,11 @@
         <v>23791.99181434288</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>9450</v>
+      </c>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
@@ -31032,9 +31160,11 @@
         <v>23791.99181434288</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>9450</v>
+      </c>
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
@@ -31069,9 +31199,11 @@
         <v>24049.24911434289</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>9450</v>
+      </c>
       <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
@@ -31143,9 +31275,11 @@
         <v>23658.78581434289</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I916" t="n">
+        <v>9415</v>
+      </c>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
@@ -31180,9 +31314,11 @@
         <v>23662.18581434289</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>9415</v>
+      </c>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
@@ -31217,9 +31353,11 @@
         <v>23557.68581434289</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>9435</v>
+      </c>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
@@ -31254,9 +31392,11 @@
         <v>23569.98291434289</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I919" t="n">
+        <v>9415</v>
+      </c>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
@@ -31291,9 +31431,11 @@
         <v>23569.98291434289</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I920" t="n">
+        <v>9435</v>
+      </c>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
@@ -31328,9 +31470,11 @@
         <v>23240.21071434289</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I921" t="n">
+        <v>9435</v>
+      </c>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
@@ -31365,9 +31509,11 @@
         <v>22472.52471434289</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I922" t="n">
+        <v>9430</v>
+      </c>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
@@ -31402,9 +31548,11 @@
         <v>22496.15661434289</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>9415</v>
+      </c>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
@@ -31439,9 +31587,11 @@
         <v>22604.42971434288</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>9425</v>
+      </c>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
@@ -31476,9 +31626,11 @@
         <v>22798.42971434288</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>9430</v>
+      </c>
       <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
@@ -31513,9 +31665,11 @@
         <v>22436.97681434288</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I926" t="n">
+        <v>9435</v>
+      </c>
       <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
@@ -31550,9 +31704,11 @@
         <v>22398.42461434289</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I927" t="n">
+        <v>9425</v>
+      </c>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
@@ -31587,9 +31743,11 @@
         <v>22100.10121434289</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
-      </c>
-      <c r="I928" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I928" t="n">
+        <v>9410</v>
+      </c>
       <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
@@ -31624,9 +31782,11 @@
         <v>22064.11821434289</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
-      </c>
-      <c r="I929" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I929" t="n">
+        <v>9390</v>
+      </c>
       <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
@@ -31661,9 +31821,11 @@
         <v>22064.11821434289</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
-      </c>
-      <c r="I930" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I930" t="n">
+        <v>9385</v>
+      </c>
       <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
@@ -31698,9 +31860,11 @@
         <v>21765.20491434288</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
-      </c>
-      <c r="I931" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I931" t="n">
+        <v>9385</v>
+      </c>
       <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
@@ -31735,9 +31899,11 @@
         <v>23046.20511434288</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
-      </c>
-      <c r="I932" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I932" t="n">
+        <v>9380</v>
+      </c>
       <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
@@ -31772,9 +31938,11 @@
         <v>20618.40271434288</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
-      </c>
-      <c r="I933" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I933" t="n">
+        <v>9390</v>
+      </c>
       <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
@@ -31809,9 +31977,11 @@
         <v>20879.82321434288</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
-      </c>
-      <c r="I934" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I934" t="n">
+        <v>9310</v>
+      </c>
       <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
@@ -31846,9 +32016,11 @@
         <v>21023.08291434288</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
-      </c>
-      <c r="I935" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I935" t="n">
+        <v>9375</v>
+      </c>
       <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
@@ -31883,9 +32055,11 @@
         <v>21006.83751434288</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
-      </c>
-      <c r="I936" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I936" t="n">
+        <v>9390</v>
+      </c>
       <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
@@ -31920,9 +32094,11 @@
         <v>21622.29621434288</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
-      </c>
-      <c r="I937" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I937" t="n">
+        <v>9380</v>
+      </c>
       <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
@@ -31957,9 +32133,11 @@
         <v>21622.29621434288</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
-      </c>
-      <c r="I938" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I938" t="n">
+        <v>9385</v>
+      </c>
       <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
@@ -31994,9 +32172,11 @@
         <v>21929.48511434288</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
-      </c>
-      <c r="I939" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I939" t="n">
+        <v>9385</v>
+      </c>
       <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
@@ -32031,9 +32211,11 @@
         <v>21014.93091434288</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
-      </c>
-      <c r="I940" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I940" t="n">
+        <v>9400</v>
+      </c>
       <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
@@ -32068,9 +32250,11 @@
         <v>23975.89731434288</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
-      </c>
-      <c r="I941" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I941" t="n">
+        <v>9305</v>
+      </c>
       <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
@@ -32105,9 +32289,11 @@
         <v>23462.04081434288</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
-      </c>
-      <c r="I942" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I942" t="n">
+        <v>9355</v>
+      </c>
       <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
@@ -32142,9 +32328,11 @@
         <v>22833.66671434288</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
-      </c>
-      <c r="I943" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I943" t="n">
+        <v>9330</v>
+      </c>
       <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
@@ -32179,9 +32367,11 @@
         <v>23412.44041434288</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
-      </c>
-      <c r="I944" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I944" t="n">
+        <v>9310</v>
+      </c>
       <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
@@ -32216,9 +32406,11 @@
         <v>23836.49501434288</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
-      </c>
-      <c r="I945" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I945" t="n">
+        <v>9315</v>
+      </c>
       <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
@@ -32253,9 +32445,11 @@
         <v>25104.25461434288</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
-      </c>
-      <c r="I946" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I946" t="n">
+        <v>9335</v>
+      </c>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
@@ -32290,9 +32484,11 @@
         <v>25632.21711434289</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I947" t="n">
+        <v>9350</v>
+      </c>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
@@ -32327,9 +32523,11 @@
         <v>25632.21711434289</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>9355</v>
+      </c>
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
@@ -32364,9 +32562,11 @@
         <v>25633.30391434289</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
-      </c>
-      <c r="I949" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I949" t="n">
+        <v>9355</v>
+      </c>
       <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
@@ -32401,9 +32601,11 @@
         <v>24639.82561434289</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
-      </c>
-      <c r="I950" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I950" t="n">
+        <v>9360</v>
+      </c>
       <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
@@ -32438,9 +32640,11 @@
         <v>23803.20101434289</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I951" t="n">
+        <v>9330</v>
+      </c>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
@@ -32475,9 +32679,11 @@
         <v>23803.20101434289</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
-      </c>
-      <c r="I952" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I952" t="n">
+        <v>9325</v>
+      </c>
       <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
@@ -32512,9 +32718,11 @@
         <v>24164.96331434289</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I953" t="n">
+        <v>9325</v>
+      </c>
       <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
@@ -32549,9 +32757,11 @@
         <v>24396.54411434289</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
-      </c>
-      <c r="I954" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I954" t="n">
+        <v>9335</v>
+      </c>
       <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
@@ -32586,9 +32796,11 @@
         <v>24266.65151434289</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
-      </c>
-      <c r="I955" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I955" t="n">
+        <v>9370</v>
+      </c>
       <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
@@ -32623,9 +32835,11 @@
         <v>24576.85461434289</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
-      </c>
-      <c r="I956" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I956" t="n">
+        <v>9350</v>
+      </c>
       <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
@@ -32660,9 +32874,11 @@
         <v>24835.92951434289</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
-      </c>
-      <c r="I957" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I957" t="n">
+        <v>9360</v>
+      </c>
       <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
@@ -32697,9 +32913,11 @@
         <v>24559.39471434288</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
-      </c>
-      <c r="I958" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I958" t="n">
+        <v>9375</v>
+      </c>
       <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr">
         <is>
@@ -32734,9 +32952,11 @@
         <v>24571.89451434289</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
-      </c>
-      <c r="I959" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I959" t="n">
+        <v>9365</v>
+      </c>
       <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
@@ -32771,9 +32991,11 @@
         <v>24449.04621434288</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
-      </c>
-      <c r="I960" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I960" t="n">
+        <v>9370</v>
+      </c>
       <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
@@ -32808,9 +33030,11 @@
         <v>24429.43881434288</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
-      </c>
-      <c r="I961" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I961" t="n">
+        <v>9350</v>
+      </c>
       <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr">
         <is>
@@ -32845,9 +33069,11 @@
         <v>23770.45201434289</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
-      </c>
-      <c r="I962" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I962" t="n">
+        <v>9335</v>
+      </c>
       <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr">
         <is>
@@ -32882,9 +33108,11 @@
         <v>23770.45201434289</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
-      </c>
-      <c r="I963" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I963" t="n">
+        <v>9315</v>
+      </c>
       <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr">
         <is>
@@ -33075,9 +33303,11 @@
         <v>19236.94767809693</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
-      </c>
-      <c r="I968" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I968" t="n">
+        <v>9285</v>
+      </c>
       <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
@@ -33463,11 +33693,9 @@
         <v>25794.92297809693</v>
       </c>
       <c r="H978" t="n">
-        <v>1</v>
-      </c>
-      <c r="I978" t="n">
-        <v>9295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
@@ -34168,9 +34396,11 @@
         <v>30308.06097809693</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
-      </c>
-      <c r="I997" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I997" t="n">
+        <v>9300</v>
+      </c>
       <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr">
         <is>
@@ -34205,9 +34435,11 @@
         <v>30725.30677809693</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
-      </c>
-      <c r="I998" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I998" t="n">
+        <v>9295</v>
+      </c>
       <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr">
         <is>
@@ -36203,18 +36435,16 @@
         <v>41053.48892858792</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L1052" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1052" t="inlineStr"/>
       <c r="M1052" t="inlineStr"/>
     </row>
     <row r="1053">
@@ -36244,11 +36474,7 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1053" t="inlineStr"/>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -36277,15 +36503,11 @@
         <v>39749.26962858792</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1054" t="inlineStr"/>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -36314,15 +36536,11 @@
         <v>39106.03502858792</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1055" t="inlineStr"/>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -36351,15 +36569,11 @@
         <v>37707.76362858792</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1056" t="inlineStr"/>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -36392,11 +36606,7 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1057" t="inlineStr"/>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -36425,15 +36635,11 @@
         <v>37703.87959585318</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1058" t="inlineStr"/>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -36462,15 +36668,11 @@
         <v>38252.51379585319</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1059" t="inlineStr"/>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -36499,15 +36701,11 @@
         <v>39034.03779585318</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1060" t="inlineStr"/>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -36536,15 +36734,11 @@
         <v>40570.98312858792</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1061" t="inlineStr"/>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -36573,15 +36767,11 @@
         <v>39378.07732858792</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1062" t="inlineStr"/>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -36610,15 +36800,11 @@
         <v>37618.46822858792</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1063" t="inlineStr"/>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -36647,15 +36833,11 @@
         <v>39275.34502858792</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1064" t="inlineStr"/>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -36684,15 +36866,11 @@
         <v>39141.96042858792</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1065" t="inlineStr"/>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -36721,15 +36899,11 @@
         <v>40076.47377973882</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1066" t="inlineStr"/>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -36758,15 +36932,11 @@
         <v>39976.47377973882</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1067" t="inlineStr"/>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -36795,15 +36965,11 @@
         <v>41434.22187973881</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1068" t="inlineStr"/>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -36832,15 +36998,11 @@
         <v>39833.70047973881</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1069" t="inlineStr"/>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -36869,15 +37031,11 @@
         <v>40115.78867973881</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1070" t="inlineStr"/>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -36906,15 +37064,11 @@
         <v>37539.48007973882</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1071" t="inlineStr"/>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -36943,15 +37097,11 @@
         <v>35174.40657973882</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1072" t="inlineStr"/>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -36980,15 +37130,11 @@
         <v>30785.05747973882</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1073" t="inlineStr"/>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -37021,11 +37167,7 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1074" t="inlineStr"/>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -37058,11 +37200,7 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1075" t="inlineStr"/>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -37095,11 +37233,7 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1076" t="inlineStr"/>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -37132,11 +37266,7 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1077" t="inlineStr"/>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -37169,11 +37299,7 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1078" t="inlineStr"/>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -37206,11 +37332,7 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1079" t="inlineStr"/>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -37243,11 +37365,7 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1080" t="inlineStr"/>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -37280,11 +37398,7 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1081" t="inlineStr"/>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -37313,15 +37427,11 @@
         <v>33858.17357973881</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1082" t="inlineStr"/>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -37350,15 +37460,11 @@
         <v>31097.69906533552</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1083" t="inlineStr"/>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -37387,15 +37493,11 @@
         <v>30416.55136533552</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1084" t="inlineStr"/>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -37428,11 +37530,7 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1085" t="inlineStr"/>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -37465,11 +37563,7 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1086" t="inlineStr"/>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -37502,11 +37596,7 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1087" t="inlineStr"/>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -37539,11 +37629,7 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1088" t="inlineStr"/>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
